--- a/mosip_master/xlsx/zone_user.xlsx
+++ b/mosip_master/xlsx/zone_user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71BC0CE-5E92-4E20-AF7D-F887BCE28038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C52605-A23F-4EDC-81F2-5245D9B41C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>lang_code</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>service-account-mosip-resident-client</t>
+  </si>
+  <si>
+    <t>por</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>officer</t>
+  </si>
+  <si>
+    <t>ganesh</t>
   </si>
 </sst>
 </file>
@@ -431,21 +443,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -473,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -484,6 +496,62 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="b">
         <v>1</v>
       </c>
     </row>
